--- a/Output/redes/Medidas_red.xlsx
+++ b/Output/redes/Medidas_red.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,15 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>num_nodos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>num_enlaces</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>densidad</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>distancia_promedio</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clustering_coef</t>
         </is>
@@ -386,13 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.04685990338164251</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>1.288888888888889</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>0.1703958691910499</v>
+        <v>0.01972297500752785</v>
+      </c>
+      <c r="E2">
+        <v>1.201219512195122</v>
+      </c>
+      <c r="F2">
+        <v>0.08716707021791767</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.04879807692307692</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>2.353359173126615</v>
+        <v>357</v>
       </c>
       <c r="D3">
-        <v>0.2182572614107884</v>
+        <v>0.008969849246231155</v>
+      </c>
+      <c r="E3">
+        <v>2.426678120014726</v>
+      </c>
+      <c r="F3">
+        <v>0.04861407249466951</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.04342723004694836</v>
+        <v>226</v>
       </c>
       <c r="C4">
-        <v>2.46417445482866</v>
+        <v>464</v>
       </c>
       <c r="D4">
-        <v>0.228486646884273</v>
+        <v>0.00912487708947886</v>
+      </c>
+      <c r="E4">
+        <v>2.448033178333543</v>
+      </c>
+      <c r="F4">
+        <v>0.06399732747924024</v>
       </c>
     </row>
   </sheetData>
